--- a/TestData/Oppurtunities/Create Oppurtunities.xlsx
+++ b/TestData/Oppurtunities/Create Oppurtunities.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Run</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>Test_Op1</t>
+  </si>
+  <si>
+    <t>Test_Op2</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,10 +591,10 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -615,146 +618,6 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1">
-        <v>42945</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1">
-        <v>42945</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1">
-        <v>42945</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1">
-        <v>42945</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
         <v>12</v>
       </c>
     </row>
